--- a/MetaData-Modfied.xlsx
+++ b/MetaData-Modfied.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjeevsharma/Desktop/AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{781B75F3-C8E6-E74C-B4FD-19A7C9C6CC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9606B6EA-9619-A240-AA02-650CF57C2BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15982" uniqueCount="3737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15983" uniqueCount="3738">
   <si>
     <t>TRACTCE20</t>
   </si>
@@ -11247,6 +11247,9 @@
   </si>
   <si>
     <t>Hispanic</t>
+  </si>
+  <si>
+    <t>TotalCase</t>
   </si>
 </sst>
 </file>
@@ -11345,7 +11348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11360,6 +11363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11640,10 +11644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH353"/>
+  <dimension ref="A1:BI353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR339" workbookViewId="0">
-      <selection activeCell="BH304" sqref="BH304:BH353"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BI1" sqref="BI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11679,7 +11683,7 @@
     <col min="60" max="60" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>359</v>
       </c>
@@ -11860,8 +11864,11 @@
       <c r="BH1" t="s">
         <v>3693</v>
       </c>
+      <c r="BI1" t="s">
+        <v>3737</v>
+      </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>360</v>
       </c>
@@ -12042,8 +12049,12 @@
       <c r="BH2" s="9">
         <v>3188</v>
       </c>
+      <c r="BI2" s="10">
+        <f>SUM(C2:M2)</f>
+        <v>6313</v>
+      </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>361</v>
       </c>
@@ -12224,8 +12235,12 @@
       <c r="BH3" s="9">
         <v>0</v>
       </c>
+      <c r="BI3" s="10">
+        <f t="shared" ref="BI3:BI66" si="0">SUM(C3:M3)</f>
+        <v>2253</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>362</v>
       </c>
@@ -12406,8 +12421,12 @@
       <c r="BH4" s="9">
         <v>0</v>
       </c>
+      <c r="BI4" s="10">
+        <f t="shared" si="0"/>
+        <v>1448</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>363</v>
       </c>
@@ -12588,8 +12607,12 @@
       <c r="BH5" s="9">
         <v>0</v>
       </c>
+      <c r="BI5" s="10">
+        <f t="shared" si="0"/>
+        <v>2345</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>364</v>
       </c>
@@ -12770,8 +12793,12 @@
       <c r="BH6" s="9">
         <v>0</v>
       </c>
+      <c r="BI6" s="10">
+        <f t="shared" si="0"/>
+        <v>1587</v>
+      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>365</v>
       </c>
@@ -12952,8 +12979,12 @@
       <c r="BH7" s="9">
         <v>479</v>
       </c>
+      <c r="BI7" s="10">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>366</v>
       </c>
@@ -13134,8 +13165,12 @@
       <c r="BH8" s="9">
         <v>1532</v>
       </c>
+      <c r="BI8" s="10">
+        <f t="shared" si="0"/>
+        <v>3051</v>
+      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>367</v>
       </c>
@@ -13316,8 +13351,12 @@
       <c r="BH9" s="9">
         <v>15</v>
       </c>
+      <c r="BI9" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>368</v>
       </c>
@@ -13498,8 +13537,12 @@
       <c r="BH10" s="9">
         <v>0</v>
       </c>
+      <c r="BI10" s="10">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>369</v>
       </c>
@@ -13680,8 +13723,12 @@
       <c r="BH11" s="9">
         <v>0</v>
       </c>
+      <c r="BI11" s="10">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>369</v>
       </c>
@@ -13862,8 +13909,12 @@
       <c r="BH12" s="9">
         <v>0</v>
       </c>
+      <c r="BI12" s="10">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>370</v>
       </c>
@@ -14044,8 +14095,12 @@
       <c r="BH13" s="9">
         <v>3300</v>
       </c>
+      <c r="BI13" s="10">
+        <f t="shared" si="0"/>
+        <v>2683</v>
+      </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>370</v>
       </c>
@@ -14226,8 +14281,12 @@
       <c r="BH14" s="9">
         <v>0</v>
       </c>
+      <c r="BI14" s="10">
+        <f t="shared" si="0"/>
+        <v>1127</v>
+      </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>370</v>
       </c>
@@ -14408,8 +14467,12 @@
       <c r="BH15" s="9">
         <v>0</v>
       </c>
+      <c r="BI15" s="10">
+        <f t="shared" si="0"/>
+        <v>2306</v>
+      </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>371</v>
       </c>
@@ -14590,8 +14653,12 @@
       <c r="BH16" s="9">
         <v>0</v>
       </c>
+      <c r="BI16" s="10">
+        <f t="shared" si="0"/>
+        <v>1230</v>
+      </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>371</v>
       </c>
@@ -14772,8 +14839,12 @@
       <c r="BH17" s="9">
         <v>2323</v>
       </c>
+      <c r="BI17" s="10">
+        <f t="shared" si="0"/>
+        <v>1275</v>
+      </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>372</v>
       </c>
@@ -14954,8 +15025,12 @@
       <c r="BH18" s="9">
         <v>0</v>
       </c>
+      <c r="BI18" s="10">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -15136,8 +15211,12 @@
       <c r="BH19" s="9">
         <v>0</v>
       </c>
+      <c r="BI19" s="10">
+        <f t="shared" si="0"/>
+        <v>1188</v>
+      </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>373</v>
       </c>
@@ -15318,8 +15397,12 @@
       <c r="BH20" s="9">
         <v>0</v>
       </c>
+      <c r="BI20" s="10">
+        <f t="shared" si="0"/>
+        <v>2651</v>
+      </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>374</v>
       </c>
@@ -15500,8 +15583,12 @@
       <c r="BH21" s="9">
         <v>0</v>
       </c>
+      <c r="BI21" s="10">
+        <f t="shared" si="0"/>
+        <v>523</v>
+      </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>374</v>
       </c>
@@ -15682,8 +15769,12 @@
       <c r="BH22" s="9">
         <v>0</v>
       </c>
+      <c r="BI22" s="10">
+        <f t="shared" si="0"/>
+        <v>1547</v>
+      </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>375</v>
       </c>
@@ -15864,8 +15955,12 @@
       <c r="BH23" s="9">
         <v>2896</v>
       </c>
+      <c r="BI23" s="10">
+        <f t="shared" si="0"/>
+        <v>2252</v>
+      </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>376</v>
       </c>
@@ -16046,8 +16141,12 @@
       <c r="BH24" s="9">
         <v>1949</v>
       </c>
+      <c r="BI24" s="10">
+        <f t="shared" si="0"/>
+        <v>1336</v>
+      </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>376</v>
       </c>
@@ -16228,8 +16327,12 @@
       <c r="BH25" s="9">
         <v>0</v>
       </c>
+      <c r="BI25" s="10">
+        <f t="shared" si="0"/>
+        <v>3263</v>
+      </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>376</v>
       </c>
@@ -16410,8 +16513,12 @@
       <c r="BH26" s="9">
         <v>0</v>
       </c>
+      <c r="BI26" s="10">
+        <f t="shared" si="0"/>
+        <v>1247</v>
+      </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>376</v>
       </c>
@@ -16592,8 +16699,12 @@
       <c r="BH27" s="9">
         <v>0</v>
       </c>
+      <c r="BI27" s="10">
+        <f t="shared" si="0"/>
+        <v>1396</v>
+      </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>376</v>
       </c>
@@ -16774,8 +16885,12 @@
       <c r="BH28" s="9">
         <v>2252</v>
       </c>
+      <c r="BI28" s="10">
+        <f t="shared" si="0"/>
+        <v>1453</v>
+      </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>376</v>
       </c>
@@ -16956,8 +17071,12 @@
       <c r="BH29" s="9">
         <v>0</v>
       </c>
+      <c r="BI29" s="10">
+        <f t="shared" si="0"/>
+        <v>1297</v>
+      </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>376</v>
       </c>
@@ -17138,8 +17257,12 @@
       <c r="BH30" s="9">
         <v>0</v>
       </c>
+      <c r="BI30" s="10">
+        <f t="shared" si="0"/>
+        <v>1130</v>
+      </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>376</v>
       </c>
@@ -17320,8 +17443,12 @@
       <c r="BH31" s="9">
         <v>0</v>
       </c>
+      <c r="BI31" s="10">
+        <f t="shared" si="0"/>
+        <v>1710</v>
+      </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>376</v>
       </c>
@@ -17502,8 +17629,12 @@
       <c r="BH32" s="9">
         <v>0</v>
       </c>
+      <c r="BI32" s="10">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>376</v>
       </c>
@@ -17684,8 +17815,12 @@
       <c r="BH33" s="9">
         <v>0</v>
       </c>
+      <c r="BI33" s="10">
+        <f t="shared" si="0"/>
+        <v>875</v>
+      </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>376</v>
       </c>
@@ -17866,8 +18001,12 @@
       <c r="BH34" s="9">
         <v>0</v>
       </c>
+      <c r="BI34" s="10">
+        <f t="shared" si="0"/>
+        <v>1640</v>
+      </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>376</v>
       </c>
@@ -18048,8 +18187,12 @@
       <c r="BH35" s="9">
         <v>0</v>
       </c>
+      <c r="BI35" s="10">
+        <f t="shared" si="0"/>
+        <v>1099</v>
+      </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>376</v>
       </c>
@@ -18230,8 +18373,12 @@
       <c r="BH36" s="9">
         <v>0</v>
       </c>
+      <c r="BI36" s="10">
+        <f t="shared" si="0"/>
+        <v>775</v>
+      </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>377</v>
       </c>
@@ -18412,8 +18559,12 @@
       <c r="BH37" s="9">
         <v>0</v>
       </c>
+      <c r="BI37" s="10">
+        <f t="shared" si="0"/>
+        <v>2331</v>
+      </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>377</v>
       </c>
@@ -18594,8 +18745,12 @@
       <c r="BH38" s="9">
         <v>0</v>
       </c>
+      <c r="BI38" s="10">
+        <f t="shared" si="0"/>
+        <v>2356</v>
+      </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>377</v>
       </c>
@@ -18776,8 +18931,12 @@
       <c r="BH39" s="9">
         <v>0</v>
       </c>
+      <c r="BI39" s="10">
+        <f t="shared" si="0"/>
+        <v>1424</v>
+      </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>377</v>
       </c>
@@ -18958,8 +19117,12 @@
       <c r="BH40" s="9">
         <v>0</v>
       </c>
+      <c r="BI40" s="10">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>378</v>
       </c>
@@ -19140,8 +19303,12 @@
       <c r="BH41" s="9">
         <v>0</v>
       </c>
+      <c r="BI41" s="10">
+        <f t="shared" si="0"/>
+        <v>686</v>
+      </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>379</v>
       </c>
@@ -19322,8 +19489,12 @@
       <c r="BH42" s="9">
         <v>0</v>
       </c>
+      <c r="BI42" s="10">
+        <f t="shared" si="0"/>
+        <v>3430</v>
+      </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>379</v>
       </c>
@@ -19504,8 +19675,12 @@
       <c r="BH43" s="9">
         <v>0</v>
       </c>
+      <c r="BI43" s="10">
+        <f t="shared" si="0"/>
+        <v>1716</v>
+      </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>379</v>
       </c>
@@ -19686,8 +19861,12 @@
       <c r="BH44" s="9">
         <v>0</v>
       </c>
+      <c r="BI44" s="10">
+        <f t="shared" si="0"/>
+        <v>2217</v>
+      </c>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>380</v>
       </c>
@@ -19868,8 +20047,12 @@
       <c r="BH45" s="9">
         <v>0</v>
       </c>
+      <c r="BI45" s="10">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>380</v>
       </c>
@@ -20050,8 +20233,12 @@
       <c r="BH46" s="9">
         <v>0</v>
       </c>
+      <c r="BI46" s="10">
+        <f t="shared" si="0"/>
+        <v>872</v>
+      </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>380</v>
       </c>
@@ -20232,8 +20419,12 @@
       <c r="BH47" s="9">
         <v>0</v>
       </c>
+      <c r="BI47" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>380</v>
       </c>
@@ -20414,8 +20605,12 @@
       <c r="BH48" s="9">
         <v>0</v>
       </c>
+      <c r="BI48" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>381</v>
       </c>
@@ -20596,8 +20791,12 @@
       <c r="BH49" s="9">
         <v>0</v>
       </c>
+      <c r="BI49" s="10">
+        <f t="shared" si="0"/>
+        <v>2751</v>
+      </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>381</v>
       </c>
@@ -20778,8 +20977,12 @@
       <c r="BH50" s="9">
         <v>2095</v>
       </c>
+      <c r="BI50" s="10">
+        <f t="shared" si="0"/>
+        <v>1492</v>
+      </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>381</v>
       </c>
@@ -20960,8 +21163,12 @@
       <c r="BH51" s="9">
         <v>0</v>
       </c>
+      <c r="BI51" s="10">
+        <f t="shared" si="0"/>
+        <v>1803</v>
+      </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>381</v>
       </c>
@@ -21142,8 +21349,12 @@
       <c r="BH52" s="9">
         <v>0</v>
       </c>
+      <c r="BI52" s="10">
+        <f t="shared" si="0"/>
+        <v>626</v>
+      </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>381</v>
       </c>
@@ -21324,8 +21535,12 @@
       <c r="BH53" s="9">
         <v>0</v>
       </c>
+      <c r="BI53" s="10">
+        <f t="shared" si="0"/>
+        <v>1456</v>
+      </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>381</v>
       </c>
@@ -21506,8 +21721,12 @@
       <c r="BH54" s="9">
         <v>0</v>
       </c>
+      <c r="BI54" s="10">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>381</v>
       </c>
@@ -21688,8 +21907,12 @@
       <c r="BH55" s="9">
         <v>0</v>
       </c>
+      <c r="BI55" s="10">
+        <f t="shared" si="0"/>
+        <v>876</v>
+      </c>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>381</v>
       </c>
@@ -21870,8 +22093,12 @@
       <c r="BH56" s="9">
         <v>0</v>
       </c>
+      <c r="BI56" s="10">
+        <f t="shared" si="0"/>
+        <v>1511</v>
+      </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>381</v>
       </c>
@@ -22052,8 +22279,12 @@
       <c r="BH57" s="9">
         <v>0</v>
       </c>
+      <c r="BI57" s="10">
+        <f t="shared" si="0"/>
+        <v>556</v>
+      </c>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>382</v>
       </c>
@@ -22234,8 +22465,12 @@
       <c r="BH58" s="9">
         <v>910</v>
       </c>
+      <c r="BI58" s="10">
+        <f t="shared" si="0"/>
+        <v>1073</v>
+      </c>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>382</v>
       </c>
@@ -22416,8 +22651,12 @@
       <c r="BH59" s="9">
         <v>0</v>
       </c>
+      <c r="BI59" s="10">
+        <f t="shared" si="0"/>
+        <v>415</v>
+      </c>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>382</v>
       </c>
@@ -22598,8 +22837,12 @@
       <c r="BH60" s="9">
         <v>0</v>
       </c>
+      <c r="BI60" s="10">
+        <f t="shared" si="0"/>
+        <v>730</v>
+      </c>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>382</v>
       </c>
@@ -22780,8 +23023,12 @@
       <c r="BH61" s="9">
         <v>0</v>
       </c>
+      <c r="BI61" s="10">
+        <f t="shared" si="0"/>
+        <v>1218</v>
+      </c>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>382</v>
       </c>
@@ -22962,8 +23209,12 @@
       <c r="BH62" s="9">
         <v>0</v>
       </c>
+      <c r="BI62" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>382</v>
       </c>
@@ -23144,8 +23395,12 @@
       <c r="BH63" s="9">
         <v>0</v>
       </c>
+      <c r="BI63" s="10">
+        <f t="shared" si="0"/>
+        <v>407</v>
+      </c>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>382</v>
       </c>
@@ -23326,8 +23581,12 @@
       <c r="BH64" s="9">
         <v>0</v>
       </c>
+      <c r="BI64" s="10">
+        <f t="shared" si="0"/>
+        <v>851</v>
+      </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>382</v>
       </c>
@@ -23508,8 +23767,12 @@
       <c r="BH65" s="9">
         <v>0</v>
       </c>
+      <c r="BI65" s="10">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>382</v>
       </c>
@@ -23690,8 +23953,12 @@
       <c r="BH66" s="9">
         <v>0</v>
       </c>
+      <c r="BI66" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>383</v>
       </c>
@@ -23872,8 +24139,12 @@
       <c r="BH67" s="9">
         <v>0</v>
       </c>
+      <c r="BI67" s="10">
+        <f t="shared" ref="BI67:BI130" si="1">SUM(C67:M67)</f>
+        <v>2089</v>
+      </c>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>384</v>
       </c>
@@ -24054,8 +24325,12 @@
       <c r="BH68" s="9">
         <v>0</v>
       </c>
+      <c r="BI68" s="10">
+        <f t="shared" si="1"/>
+        <v>2949</v>
+      </c>
     </row>
-    <row r="69" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>385</v>
       </c>
@@ -24236,8 +24511,12 @@
       <c r="BH69" s="9">
         <v>0</v>
       </c>
+      <c r="BI69" s="10">
+        <f t="shared" si="1"/>
+        <v>2758</v>
+      </c>
     </row>
-    <row r="70" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>385</v>
       </c>
@@ -24418,8 +24697,12 @@
       <c r="BH70" s="9">
         <v>0</v>
       </c>
+      <c r="BI70" s="10">
+        <f t="shared" si="1"/>
+        <v>2679</v>
+      </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>386</v>
       </c>
@@ -24600,8 +24883,12 @@
       <c r="BH71" s="9">
         <v>542</v>
       </c>
+      <c r="BI71" s="10">
+        <f t="shared" si="1"/>
+        <v>3005</v>
+      </c>
     </row>
-    <row r="72" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>387</v>
       </c>
@@ -24782,8 +25069,12 @@
       <c r="BH72" s="9">
         <v>0</v>
       </c>
+      <c r="BI72" s="10">
+        <f t="shared" si="1"/>
+        <v>2770</v>
+      </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>388</v>
       </c>
@@ -24964,8 +25255,12 @@
       <c r="BH73" s="9">
         <v>0</v>
       </c>
+      <c r="BI73" s="10">
+        <f t="shared" si="1"/>
+        <v>1406</v>
+      </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>389</v>
       </c>
@@ -25146,8 +25441,12 @@
       <c r="BH74" s="9">
         <v>0</v>
       </c>
+      <c r="BI74" s="10">
+        <f t="shared" si="1"/>
+        <v>3253</v>
+      </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>390</v>
       </c>
@@ -25328,8 +25627,12 @@
       <c r="BH75" s="9">
         <v>1329</v>
       </c>
+      <c r="BI75" s="10">
+        <f t="shared" si="1"/>
+        <v>2691</v>
+      </c>
     </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>391</v>
       </c>
@@ -25510,8 +25813,12 @@
       <c r="BH76" s="9">
         <v>2148</v>
       </c>
+      <c r="BI76" s="10">
+        <f t="shared" si="1"/>
+        <v>3576</v>
+      </c>
     </row>
-    <row r="77" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>392</v>
       </c>
@@ -25692,8 +25999,12 @@
       <c r="BH77" s="9">
         <v>0</v>
       </c>
+      <c r="BI77" s="10">
+        <f t="shared" si="1"/>
+        <v>1899</v>
+      </c>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>393</v>
       </c>
@@ -25874,8 +26185,12 @@
       <c r="BH78" s="9">
         <v>0</v>
       </c>
+      <c r="BI78" s="10">
+        <f t="shared" si="1"/>
+        <v>1943</v>
+      </c>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>394</v>
       </c>
@@ -26056,8 +26371,12 @@
       <c r="BH79" s="9">
         <v>0</v>
       </c>
+      <c r="BI79" s="10">
+        <f t="shared" si="1"/>
+        <v>3546</v>
+      </c>
     </row>
-    <row r="80" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>395</v>
       </c>
@@ -26238,8 +26557,12 @@
       <c r="BH80" s="9">
         <v>1578</v>
       </c>
+      <c r="BI80" s="10">
+        <f t="shared" si="1"/>
+        <v>4852</v>
+      </c>
     </row>
-    <row r="81" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>395</v>
       </c>
@@ -26420,8 +26743,12 @@
       <c r="BH81" s="9">
         <v>0</v>
       </c>
+      <c r="BI81" s="10">
+        <f t="shared" si="1"/>
+        <v>1751</v>
+      </c>
     </row>
-    <row r="82" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>396</v>
       </c>
@@ -26602,8 +26929,12 @@
       <c r="BH82" s="9">
         <v>0</v>
       </c>
+      <c r="BI82" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="83" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>396</v>
       </c>
@@ -26784,8 +27115,12 @@
       <c r="BH83" s="9">
         <v>0</v>
       </c>
+      <c r="BI83" s="10">
+        <f t="shared" si="1"/>
+        <v>251</v>
+      </c>
     </row>
-    <row r="84" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>396</v>
       </c>
@@ -26966,8 +27301,12 @@
       <c r="BH84" s="9">
         <v>0</v>
       </c>
+      <c r="BI84" s="10">
+        <f t="shared" si="1"/>
+        <v>972</v>
+      </c>
     </row>
-    <row r="85" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>396</v>
       </c>
@@ -27148,8 +27487,12 @@
       <c r="BH85" s="9">
         <v>0</v>
       </c>
+      <c r="BI85" s="10">
+        <f t="shared" si="1"/>
+        <v>1152</v>
+      </c>
     </row>
-    <row r="86" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>396</v>
       </c>
@@ -27330,8 +27673,12 @@
       <c r="BH86" s="9">
         <v>0</v>
       </c>
+      <c r="BI86" s="10">
+        <f t="shared" si="1"/>
+        <v>1959</v>
+      </c>
     </row>
-    <row r="87" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>397</v>
       </c>
@@ -27512,8 +27859,12 @@
       <c r="BH87" s="9">
         <v>0</v>
       </c>
+      <c r="BI87" s="10">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
     </row>
-    <row r="88" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>397</v>
       </c>
@@ -27694,8 +28045,12 @@
       <c r="BH88" s="9">
         <v>0</v>
       </c>
+      <c r="BI88" s="10">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
     </row>
-    <row r="89" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>397</v>
       </c>
@@ -27876,8 +28231,12 @@
       <c r="BH89" s="9">
         <v>0</v>
       </c>
+      <c r="BI89" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="90" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>397</v>
       </c>
@@ -28058,8 +28417,12 @@
       <c r="BH90" s="9">
         <v>0</v>
       </c>
+      <c r="BI90" s="10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="91" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>397</v>
       </c>
@@ -28240,8 +28603,12 @@
       <c r="BH91" s="9">
         <v>0</v>
       </c>
+      <c r="BI91" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>397</v>
       </c>
@@ -28422,8 +28789,12 @@
       <c r="BH92" s="9">
         <v>0</v>
       </c>
+      <c r="BI92" s="10">
+        <f t="shared" si="1"/>
+        <v>744</v>
+      </c>
     </row>
-    <row r="93" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>398</v>
       </c>
@@ -28604,8 +28975,12 @@
       <c r="BH93" s="9">
         <v>0</v>
       </c>
+      <c r="BI93" s="10">
+        <f t="shared" si="1"/>
+        <v>1689</v>
+      </c>
     </row>
-    <row r="94" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>399</v>
       </c>
@@ -28786,8 +29161,12 @@
       <c r="BH94" s="9">
         <v>0</v>
       </c>
+      <c r="BI94" s="10">
+        <f t="shared" si="1"/>
+        <v>1252</v>
+      </c>
     </row>
-    <row r="95" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>400</v>
       </c>
@@ -28968,8 +29347,12 @@
       <c r="BH95" s="9">
         <v>0</v>
       </c>
+      <c r="BI95" s="10">
+        <f t="shared" si="1"/>
+        <v>2144</v>
+      </c>
     </row>
-    <row r="96" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>401</v>
       </c>
@@ -29150,8 +29533,12 @@
       <c r="BH96" s="9">
         <v>0</v>
       </c>
+      <c r="BI96" s="10">
+        <f t="shared" si="1"/>
+        <v>2638</v>
+      </c>
     </row>
-    <row r="97" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>402</v>
       </c>
@@ -29332,8 +29719,12 @@
       <c r="BH97" s="9">
         <v>2748</v>
       </c>
+      <c r="BI97" s="10">
+        <f t="shared" si="1"/>
+        <v>3077</v>
+      </c>
     </row>
-    <row r="98" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>403</v>
       </c>
@@ -29514,8 +29905,12 @@
       <c r="BH98" s="9">
         <v>0</v>
       </c>
+      <c r="BI98" s="10">
+        <f t="shared" si="1"/>
+        <v>3108</v>
+      </c>
     </row>
-    <row r="99" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>404</v>
       </c>
@@ -29696,8 +30091,12 @@
       <c r="BH99" s="9">
         <v>0</v>
       </c>
+      <c r="BI99" s="10">
+        <f t="shared" si="1"/>
+        <v>1421</v>
+      </c>
     </row>
-    <row r="100" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>405</v>
       </c>
@@ -29878,8 +30277,12 @@
       <c r="BH100" s="9">
         <v>0</v>
       </c>
+      <c r="BI100" s="10">
+        <f t="shared" si="1"/>
+        <v>3214</v>
+      </c>
     </row>
-    <row r="101" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>406</v>
       </c>
@@ -30060,8 +30463,12 @@
       <c r="BH101" s="9">
         <v>0</v>
       </c>
+      <c r="BI101" s="10">
+        <f t="shared" si="1"/>
+        <v>3380</v>
+      </c>
     </row>
-    <row r="102" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>407</v>
       </c>
@@ -30242,8 +30649,12 @@
       <c r="BH102" s="9">
         <v>0</v>
       </c>
+      <c r="BI102" s="10">
+        <f t="shared" si="1"/>
+        <v>1602</v>
+      </c>
     </row>
-    <row r="103" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>408</v>
       </c>
@@ -30424,8 +30835,12 @@
       <c r="BH103" s="9">
         <v>0</v>
       </c>
+      <c r="BI103" s="10">
+        <f t="shared" si="1"/>
+        <v>1875</v>
+      </c>
     </row>
-    <row r="104" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>409</v>
       </c>
@@ -30606,8 +31021,12 @@
       <c r="BH104" s="9">
         <v>0</v>
       </c>
+      <c r="BI104" s="10">
+        <f t="shared" si="1"/>
+        <v>1343</v>
+      </c>
     </row>
-    <row r="105" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>409</v>
       </c>
@@ -30788,8 +31207,12 @@
       <c r="BH105" s="9">
         <v>0</v>
       </c>
+      <c r="BI105" s="10">
+        <f t="shared" si="1"/>
+        <v>1892</v>
+      </c>
     </row>
-    <row r="106" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>410</v>
       </c>
@@ -30970,8 +31393,12 @@
       <c r="BH106" s="9">
         <v>0</v>
       </c>
+      <c r="BI106" s="10">
+        <f t="shared" si="1"/>
+        <v>4457</v>
+      </c>
     </row>
-    <row r="107" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>411</v>
       </c>
@@ -31152,8 +31579,12 @@
       <c r="BH107" s="9">
         <v>0</v>
       </c>
+      <c r="BI107" s="10">
+        <f t="shared" si="1"/>
+        <v>2955</v>
+      </c>
     </row>
-    <row r="108" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>412</v>
       </c>
@@ -31334,8 +31765,12 @@
       <c r="BH108" s="9">
         <v>4432</v>
       </c>
+      <c r="BI108" s="10">
+        <f t="shared" si="1"/>
+        <v>2036</v>
+      </c>
     </row>
-    <row r="109" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>412</v>
       </c>
@@ -31516,8 +31951,12 @@
       <c r="BH109" s="9">
         <v>0</v>
       </c>
+      <c r="BI109" s="10">
+        <f t="shared" si="1"/>
+        <v>1654</v>
+      </c>
     </row>
-    <row r="110" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>412</v>
       </c>
@@ -31698,8 +32137,12 @@
       <c r="BH110" s="9">
         <v>0</v>
       </c>
+      <c r="BI110" s="10">
+        <f t="shared" si="1"/>
+        <v>1986</v>
+      </c>
     </row>
-    <row r="111" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>413</v>
       </c>
@@ -31880,8 +32323,12 @@
       <c r="BH111" s="9">
         <v>0</v>
       </c>
+      <c r="BI111" s="10">
+        <f t="shared" si="1"/>
+        <v>1598</v>
+      </c>
     </row>
-    <row r="112" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>414</v>
       </c>
@@ -32062,8 +32509,12 @@
       <c r="BH112" s="9">
         <v>0</v>
       </c>
+      <c r="BI112" s="10">
+        <f t="shared" si="1"/>
+        <v>2732</v>
+      </c>
     </row>
-    <row r="113" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>415</v>
       </c>
@@ -32244,8 +32695,12 @@
       <c r="BH113" s="9">
         <v>0</v>
       </c>
+      <c r="BI113" s="10">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
     </row>
-    <row r="114" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>416</v>
       </c>
@@ -32426,8 +32881,12 @@
       <c r="BH114" s="9">
         <v>0</v>
       </c>
+      <c r="BI114" s="10">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
     </row>
-    <row r="115" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>417</v>
       </c>
@@ -32608,8 +33067,12 @@
       <c r="BH115" s="9">
         <v>1380</v>
       </c>
+      <c r="BI115" s="10">
+        <f t="shared" si="1"/>
+        <v>3495</v>
+      </c>
     </row>
-    <row r="116" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>418</v>
       </c>
@@ -32790,8 +33253,12 @@
       <c r="BH116" s="9">
         <v>0</v>
       </c>
+      <c r="BI116" s="10">
+        <f t="shared" si="1"/>
+        <v>3270</v>
+      </c>
     </row>
-    <row r="117" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>419</v>
       </c>
@@ -32972,8 +33439,12 @@
       <c r="BH117" s="9">
         <v>0</v>
       </c>
+      <c r="BI117" s="10">
+        <f t="shared" si="1"/>
+        <v>2093</v>
+      </c>
     </row>
-    <row r="118" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>420</v>
       </c>
@@ -33154,8 +33625,12 @@
       <c r="BH118" s="9">
         <v>0</v>
       </c>
+      <c r="BI118" s="10">
+        <f t="shared" si="1"/>
+        <v>2466</v>
+      </c>
     </row>
-    <row r="119" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>420</v>
       </c>
@@ -33336,8 +33811,12 @@
       <c r="BH119" s="9">
         <v>0</v>
       </c>
+      <c r="BI119" s="10">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
     </row>
-    <row r="120" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>421</v>
       </c>
@@ -33518,8 +33997,12 @@
       <c r="BH120" s="9">
         <v>0</v>
       </c>
+      <c r="BI120" s="10">
+        <f t="shared" si="1"/>
+        <v>2508</v>
+      </c>
     </row>
-    <row r="121" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>422</v>
       </c>
@@ -33700,8 +34183,12 @@
       <c r="BH121" s="9">
         <v>0</v>
       </c>
+      <c r="BI121" s="10">
+        <f t="shared" si="1"/>
+        <v>3500</v>
+      </c>
     </row>
-    <row r="122" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>423</v>
       </c>
@@ -33882,8 +34369,12 @@
       <c r="BH122" s="9">
         <v>0</v>
       </c>
+      <c r="BI122" s="10">
+        <f t="shared" si="1"/>
+        <v>1698</v>
+      </c>
     </row>
-    <row r="123" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>424</v>
       </c>
@@ -34064,8 +34555,12 @@
       <c r="BH123" s="9">
         <v>0</v>
       </c>
+      <c r="BI123" s="10">
+        <f t="shared" si="1"/>
+        <v>3459</v>
+      </c>
     </row>
-    <row r="124" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>425</v>
       </c>
@@ -34246,8 +34741,12 @@
       <c r="BH124" s="9">
         <v>0</v>
       </c>
+      <c r="BI124" s="10">
+        <f t="shared" si="1"/>
+        <v>1889</v>
+      </c>
     </row>
-    <row r="125" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>426</v>
       </c>
@@ -34428,8 +34927,12 @@
       <c r="BH125" s="9">
         <v>0</v>
       </c>
+      <c r="BI125" s="10">
+        <f t="shared" si="1"/>
+        <v>4101</v>
+      </c>
     </row>
-    <row r="126" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>427</v>
       </c>
@@ -34610,8 +35113,12 @@
       <c r="BH126" s="9">
         <v>2542</v>
       </c>
+      <c r="BI126" s="10">
+        <f t="shared" si="1"/>
+        <v>3444</v>
+      </c>
     </row>
-    <row r="127" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>428</v>
       </c>
@@ -34792,8 +35299,12 @@
       <c r="BH127" s="9">
         <v>0</v>
       </c>
+      <c r="BI127" s="10">
+        <f t="shared" si="1"/>
+        <v>2861</v>
+      </c>
     </row>
-    <row r="128" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>428</v>
       </c>
@@ -34974,8 +35485,12 @@
       <c r="BH128" s="9">
         <v>0</v>
       </c>
+      <c r="BI128" s="10">
+        <f t="shared" si="1"/>
+        <v>1881</v>
+      </c>
     </row>
-    <row r="129" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>429</v>
       </c>
@@ -35156,8 +35671,12 @@
       <c r="BH129" s="9">
         <v>0</v>
       </c>
+      <c r="BI129" s="10">
+        <f t="shared" si="1"/>
+        <v>2339</v>
+      </c>
     </row>
-    <row r="130" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>430</v>
       </c>
@@ -35338,8 +35857,12 @@
       <c r="BH130" s="9">
         <v>2268</v>
       </c>
+      <c r="BI130" s="10">
+        <f t="shared" si="1"/>
+        <v>1834</v>
+      </c>
     </row>
-    <row r="131" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>431</v>
       </c>
@@ -35520,8 +36043,12 @@
       <c r="BH131" s="9">
         <v>0</v>
       </c>
+      <c r="BI131" s="10">
+        <f t="shared" ref="BI131:BI194" si="2">SUM(C131:M131)</f>
+        <v>3523</v>
+      </c>
     </row>
-    <row r="132" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>432</v>
       </c>
@@ -35702,8 +36229,12 @@
       <c r="BH132" s="9">
         <v>2622</v>
       </c>
+      <c r="BI132" s="10">
+        <f t="shared" si="2"/>
+        <v>4043</v>
+      </c>
     </row>
-    <row r="133" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>433</v>
       </c>
@@ -35884,8 +36415,12 @@
       <c r="BH133" s="9">
         <v>0</v>
       </c>
+      <c r="BI133" s="10">
+        <f t="shared" si="2"/>
+        <v>4075</v>
+      </c>
     </row>
-    <row r="134" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>434</v>
       </c>
@@ -36066,8 +36601,12 @@
       <c r="BH134" s="9">
         <v>0</v>
       </c>
+      <c r="BI134" s="10">
+        <f t="shared" si="2"/>
+        <v>2124</v>
+      </c>
     </row>
-    <row r="135" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>435</v>
       </c>
@@ -36248,8 +36787,12 @@
       <c r="BH135" s="9">
         <v>0</v>
       </c>
+      <c r="BI135" s="10">
+        <f t="shared" si="2"/>
+        <v>467</v>
+      </c>
     </row>
-    <row r="136" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>436</v>
       </c>
@@ -36430,8 +36973,12 @@
       <c r="BH136" s="9">
         <v>0</v>
       </c>
+      <c r="BI136" s="10">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
     </row>
-    <row r="137" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>436</v>
       </c>
@@ -36612,8 +37159,12 @@
       <c r="BH137" s="9">
         <v>0</v>
       </c>
+      <c r="BI137" s="10">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
     </row>
-    <row r="138" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>437</v>
       </c>
@@ -36794,8 +37345,12 @@
       <c r="BH138" s="9">
         <v>0</v>
       </c>
+      <c r="BI138" s="10">
+        <f t="shared" si="2"/>
+        <v>3921</v>
+      </c>
     </row>
-    <row r="139" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>438</v>
       </c>
@@ -36976,8 +37531,12 @@
       <c r="BH139" s="9">
         <v>0</v>
       </c>
+      <c r="BI139" s="10">
+        <f t="shared" si="2"/>
+        <v>1653</v>
+      </c>
     </row>
-    <row r="140" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>439</v>
       </c>
@@ -37158,8 +37717,12 @@
       <c r="BH140" s="9">
         <v>757</v>
       </c>
+      <c r="BI140" s="10">
+        <f t="shared" si="2"/>
+        <v>2942</v>
+      </c>
     </row>
-    <row r="141" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>440</v>
       </c>
@@ -37340,8 +37903,12 @@
       <c r="BH141" s="9">
         <v>0</v>
       </c>
+      <c r="BI141" s="10">
+        <f t="shared" si="2"/>
+        <v>3031</v>
+      </c>
     </row>
-    <row r="142" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>441</v>
       </c>
@@ -37522,8 +38089,12 @@
       <c r="BH142" s="9">
         <v>0</v>
       </c>
+      <c r="BI142" s="10">
+        <f t="shared" si="2"/>
+        <v>1788</v>
+      </c>
     </row>
-    <row r="143" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>441</v>
       </c>
@@ -37704,8 +38275,12 @@
       <c r="BH143" s="9">
         <v>0</v>
       </c>
+      <c r="BI143" s="10">
+        <f t="shared" si="2"/>
+        <v>2612</v>
+      </c>
     </row>
-    <row r="144" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>442</v>
       </c>
@@ -37886,8 +38461,12 @@
       <c r="BH144" s="9">
         <v>0</v>
       </c>
+      <c r="BI144" s="10">
+        <f t="shared" si="2"/>
+        <v>2897</v>
+      </c>
     </row>
-    <row r="145" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>443</v>
       </c>
@@ -38068,8 +38647,12 @@
       <c r="BH145" s="9">
         <v>0</v>
       </c>
+      <c r="BI145" s="10">
+        <f t="shared" si="2"/>
+        <v>2517</v>
+      </c>
     </row>
-    <row r="146" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>443</v>
       </c>
@@ -38250,8 +38833,12 @@
       <c r="BH146" s="9">
         <v>650</v>
       </c>
+      <c r="BI146" s="10">
+        <f t="shared" si="2"/>
+        <v>3680</v>
+      </c>
     </row>
-    <row r="147" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>444</v>
       </c>
@@ -38432,8 +39019,12 @@
       <c r="BH147" s="9">
         <v>0</v>
       </c>
+      <c r="BI147" s="10">
+        <f t="shared" si="2"/>
+        <v>2809</v>
+      </c>
     </row>
-    <row r="148" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>444</v>
       </c>
@@ -38614,8 +39205,12 @@
       <c r="BH148" s="9">
         <v>0</v>
       </c>
+      <c r="BI148" s="10">
+        <f t="shared" si="2"/>
+        <v>2204</v>
+      </c>
     </row>
-    <row r="149" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>445</v>
       </c>
@@ -38796,8 +39391,12 @@
       <c r="BH149" s="9">
         <v>2114</v>
       </c>
+      <c r="BI149" s="10">
+        <f t="shared" si="2"/>
+        <v>2537</v>
+      </c>
     </row>
-    <row r="150" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>446</v>
       </c>
@@ -38978,8 +39577,12 @@
       <c r="BH150" s="9">
         <v>0</v>
       </c>
+      <c r="BI150" s="10">
+        <f t="shared" si="2"/>
+        <v>5201</v>
+      </c>
     </row>
-    <row r="151" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>447</v>
       </c>
@@ -39160,8 +39763,12 @@
       <c r="BH151" s="9">
         <v>0</v>
       </c>
+      <c r="BI151" s="10">
+        <f t="shared" si="2"/>
+        <v>2473</v>
+      </c>
     </row>
-    <row r="152" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>448</v>
       </c>
@@ -39342,8 +39949,12 @@
       <c r="BH152" s="9">
         <v>0</v>
       </c>
+      <c r="BI152" s="10">
+        <f t="shared" si="2"/>
+        <v>1615</v>
+      </c>
     </row>
-    <row r="153" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>448</v>
       </c>
@@ -39524,8 +40135,12 @@
       <c r="BH153" s="9">
         <v>0</v>
       </c>
+      <c r="BI153" s="10">
+        <f t="shared" si="2"/>
+        <v>1810</v>
+      </c>
     </row>
-    <row r="154" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>448</v>
       </c>
@@ -39706,8 +40321,12 @@
       <c r="BH154" s="9">
         <v>0</v>
       </c>
+      <c r="BI154" s="10">
+        <f t="shared" si="2"/>
+        <v>2788</v>
+      </c>
     </row>
-    <row r="155" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>449</v>
       </c>
@@ -39885,8 +40504,12 @@
       <c r="BH155" s="3">
         <v>0</v>
       </c>
+      <c r="BI155" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="156" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>450</v>
       </c>
@@ -40067,8 +40690,12 @@
       <c r="BH156" s="9">
         <v>1723</v>
       </c>
+      <c r="BI156" s="10">
+        <f t="shared" si="2"/>
+        <v>3287</v>
+      </c>
     </row>
-    <row r="157" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>450</v>
       </c>
@@ -40249,8 +40876,12 @@
       <c r="BH157" s="9">
         <v>0</v>
       </c>
+      <c r="BI157" s="10">
+        <f t="shared" si="2"/>
+        <v>1991</v>
+      </c>
     </row>
-    <row r="158" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>450</v>
       </c>
@@ -40431,8 +41062,12 @@
       <c r="BH158" s="9">
         <v>0</v>
       </c>
+      <c r="BI158" s="10">
+        <f t="shared" si="2"/>
+        <v>2405</v>
+      </c>
     </row>
-    <row r="159" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>451</v>
       </c>
@@ -40613,8 +41248,12 @@
       <c r="BH159" s="9">
         <v>0</v>
       </c>
+      <c r="BI159" s="10">
+        <f t="shared" si="2"/>
+        <v>2592</v>
+      </c>
     </row>
-    <row r="160" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>452</v>
       </c>
@@ -40795,8 +41434,12 @@
       <c r="BH160" s="9">
         <v>0</v>
       </c>
+      <c r="BI160" s="10">
+        <f t="shared" si="2"/>
+        <v>1375</v>
+      </c>
     </row>
-    <row r="161" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>452</v>
       </c>
@@ -40977,8 +41620,12 @@
       <c r="BH161" s="9">
         <v>0</v>
       </c>
+      <c r="BI161" s="10">
+        <f t="shared" si="2"/>
+        <v>3882</v>
+      </c>
     </row>
-    <row r="162" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>453</v>
       </c>
@@ -41159,8 +41806,12 @@
       <c r="BH162" s="9">
         <v>0</v>
       </c>
+      <c r="BI162" s="10">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="163" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>454</v>
       </c>
@@ -41341,8 +41992,12 @@
       <c r="BH163" s="9">
         <v>0</v>
       </c>
+      <c r="BI163" s="10">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="164" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>455</v>
       </c>
@@ -41523,8 +42178,12 @@
       <c r="BH164" s="9">
         <v>0</v>
       </c>
+      <c r="BI164" s="10">
+        <f t="shared" si="2"/>
+        <v>2487</v>
+      </c>
     </row>
-    <row r="165" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>455</v>
       </c>
@@ -41705,8 +42364,12 @@
       <c r="BH165" s="9">
         <v>0</v>
       </c>
+      <c r="BI165" s="10">
+        <f t="shared" si="2"/>
+        <v>3182</v>
+      </c>
     </row>
-    <row r="166" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>456</v>
       </c>
@@ -41887,8 +42550,12 @@
       <c r="BH166" s="9">
         <v>5441</v>
       </c>
+      <c r="BI166" s="10">
+        <f t="shared" si="2"/>
+        <v>3942</v>
+      </c>
     </row>
-    <row r="167" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>457</v>
       </c>
@@ -42069,8 +42736,12 @@
       <c r="BH167" s="9">
         <v>0</v>
       </c>
+      <c r="BI167" s="10">
+        <f t="shared" si="2"/>
+        <v>5318</v>
+      </c>
     </row>
-    <row r="168" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>458</v>
       </c>
@@ -42251,8 +42922,12 @@
       <c r="BH168" s="9">
         <v>0</v>
       </c>
+      <c r="BI168" s="10">
+        <f t="shared" si="2"/>
+        <v>3438</v>
+      </c>
     </row>
-    <row r="169" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>458</v>
       </c>
@@ -42433,8 +43108,12 @@
       <c r="BH169" s="9">
         <v>0</v>
       </c>
+      <c r="BI169" s="10">
+        <f t="shared" si="2"/>
+        <v>3226</v>
+      </c>
     </row>
-    <row r="170" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>459</v>
       </c>
@@ -42615,8 +43294,12 @@
       <c r="BH170" s="9">
         <v>0</v>
       </c>
+      <c r="BI170" s="10">
+        <f t="shared" si="2"/>
+        <v>4471</v>
+      </c>
     </row>
-    <row r="171" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>460</v>
       </c>
@@ -42797,8 +43480,12 @@
       <c r="BH171" s="9">
         <v>0</v>
       </c>
+      <c r="BI171" s="10">
+        <f t="shared" si="2"/>
+        <v>3154</v>
+      </c>
     </row>
-    <row r="172" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>461</v>
       </c>
@@ -42979,8 +43666,12 @@
       <c r="BH172" s="9">
         <v>0</v>
       </c>
+      <c r="BI172" s="10">
+        <f t="shared" si="2"/>
+        <v>2872</v>
+      </c>
     </row>
-    <row r="173" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>462</v>
       </c>
@@ -43161,8 +43852,12 @@
       <c r="BH173" s="9">
         <v>0</v>
       </c>
+      <c r="BI173" s="10">
+        <f t="shared" si="2"/>
+        <v>1607</v>
+      </c>
     </row>
-    <row r="174" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>463</v>
       </c>
@@ -43343,8 +44038,12 @@
       <c r="BH174" s="9">
         <v>0</v>
       </c>
+      <c r="BI174" s="10">
+        <f t="shared" si="2"/>
+        <v>2529</v>
+      </c>
     </row>
-    <row r="175" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>464</v>
       </c>
@@ -43525,8 +44224,12 @@
       <c r="BH175" s="9">
         <v>0</v>
       </c>
+      <c r="BI175" s="10">
+        <f t="shared" si="2"/>
+        <v>3438</v>
+      </c>
     </row>
-    <row r="176" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>465</v>
       </c>
@@ -43707,8 +44410,12 @@
       <c r="BH176" s="9">
         <v>3476</v>
       </c>
+      <c r="BI176" s="10">
+        <f t="shared" si="2"/>
+        <v>2410</v>
+      </c>
     </row>
-    <row r="177" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>466</v>
       </c>
@@ -43889,8 +44596,12 @@
       <c r="BH177" s="9">
         <v>0</v>
       </c>
+      <c r="BI177" s="10">
+        <f t="shared" si="2"/>
+        <v>3379</v>
+      </c>
     </row>
-    <row r="178" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>467</v>
       </c>
@@ -44071,8 +44782,12 @@
       <c r="BH178" s="9">
         <v>0</v>
       </c>
+      <c r="BI178" s="10">
+        <f t="shared" si="2"/>
+        <v>2264</v>
+      </c>
     </row>
-    <row r="179" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>467</v>
       </c>
@@ -44253,8 +44968,12 @@
       <c r="BH179" s="9">
         <v>0</v>
       </c>
+      <c r="BI179" s="10">
+        <f t="shared" si="2"/>
+        <v>2165</v>
+      </c>
     </row>
-    <row r="180" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>468</v>
       </c>
@@ -44435,8 +45154,12 @@
       <c r="BH180" s="9">
         <v>0</v>
       </c>
+      <c r="BI180" s="10">
+        <f t="shared" si="2"/>
+        <v>1547</v>
+      </c>
     </row>
-    <row r="181" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>468</v>
       </c>
@@ -44617,8 +45340,12 @@
       <c r="BH181" s="9">
         <v>0</v>
       </c>
+      <c r="BI181" s="10">
+        <f t="shared" si="2"/>
+        <v>3387</v>
+      </c>
     </row>
-    <row r="182" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>469</v>
       </c>
@@ -44799,8 +45526,12 @@
       <c r="BH182" s="9">
         <v>0</v>
       </c>
+      <c r="BI182" s="10">
+        <f t="shared" si="2"/>
+        <v>1652</v>
+      </c>
     </row>
-    <row r="183" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>469</v>
       </c>
@@ -44981,8 +45712,12 @@
       <c r="BH183" s="9">
         <v>0</v>
       </c>
+      <c r="BI183" s="10">
+        <f t="shared" si="2"/>
+        <v>2973</v>
+      </c>
     </row>
-    <row r="184" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>470</v>
       </c>
@@ -45163,8 +45898,12 @@
       <c r="BH184" s="9">
         <v>0</v>
       </c>
+      <c r="BI184" s="10">
+        <f t="shared" si="2"/>
+        <v>1634</v>
+      </c>
     </row>
-    <row r="185" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>470</v>
       </c>
@@ -45345,8 +46084,12 @@
       <c r="BH185" s="9">
         <v>5</v>
       </c>
+      <c r="BI185" s="10">
+        <f t="shared" si="2"/>
+        <v>2667</v>
+      </c>
     </row>
-    <row r="186" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>471</v>
       </c>
@@ -45527,8 +46270,12 @@
       <c r="BH186" s="9">
         <v>0</v>
       </c>
+      <c r="BI186" s="10">
+        <f t="shared" si="2"/>
+        <v>4314</v>
+      </c>
     </row>
-    <row r="187" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>472</v>
       </c>
@@ -45709,8 +46456,12 @@
       <c r="BH187" s="9">
         <v>0</v>
       </c>
+      <c r="BI187" s="10">
+        <f t="shared" si="2"/>
+        <v>3141</v>
+      </c>
     </row>
-    <row r="188" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>472</v>
       </c>
@@ -45891,8 +46642,12 @@
       <c r="BH188" s="9">
         <v>4074</v>
       </c>
+      <c r="BI188" s="10">
+        <f t="shared" si="2"/>
+        <v>3485</v>
+      </c>
     </row>
-    <row r="189" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>473</v>
       </c>
@@ -46073,8 +46828,12 @@
       <c r="BH189" s="9">
         <v>0</v>
       </c>
+      <c r="BI189" s="10">
+        <f t="shared" si="2"/>
+        <v>3181</v>
+      </c>
     </row>
-    <row r="190" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>473</v>
       </c>
@@ -46255,8 +47014,12 @@
       <c r="BH190" s="9">
         <v>0</v>
       </c>
+      <c r="BI190" s="10">
+        <f t="shared" si="2"/>
+        <v>1916</v>
+      </c>
     </row>
-    <row r="191" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>473</v>
       </c>
@@ -46437,8 +47200,12 @@
       <c r="BH191" s="9">
         <v>0</v>
       </c>
+      <c r="BI191" s="10">
+        <f t="shared" si="2"/>
+        <v>2184</v>
+      </c>
     </row>
-    <row r="192" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>473</v>
       </c>
@@ -46619,8 +47386,12 @@
       <c r="BH192" s="9">
         <v>0</v>
       </c>
+      <c r="BI192" s="10">
+        <f t="shared" si="2"/>
+        <v>1673</v>
+      </c>
     </row>
-    <row r="193" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>473</v>
       </c>
@@ -46801,8 +47572,12 @@
       <c r="BH193" s="9">
         <v>0</v>
       </c>
+      <c r="BI193" s="10">
+        <f t="shared" si="2"/>
+        <v>617</v>
+      </c>
     </row>
-    <row r="194" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>473</v>
       </c>
@@ -46983,8 +47758,12 @@
       <c r="BH194" s="9">
         <v>0</v>
       </c>
+      <c r="BI194" s="10">
+        <f t="shared" si="2"/>
+        <v>1119</v>
+      </c>
     </row>
-    <row r="195" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>473</v>
       </c>
@@ -47165,8 +47944,12 @@
       <c r="BH195" s="9">
         <v>0</v>
       </c>
+      <c r="BI195" s="10">
+        <f t="shared" ref="BI195:BI258" si="3">SUM(C195:M195)</f>
+        <v>1678</v>
+      </c>
     </row>
-    <row r="196" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>473</v>
       </c>
@@ -47347,8 +48130,12 @@
       <c r="BH196" s="9">
         <v>0</v>
       </c>
+      <c r="BI196" s="10">
+        <f t="shared" si="3"/>
+        <v>1251</v>
+      </c>
     </row>
-    <row r="197" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>473</v>
       </c>
@@ -47529,8 +48316,12 @@
       <c r="BH197" s="9">
         <v>0</v>
       </c>
+      <c r="BI197" s="10">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
     </row>
-    <row r="198" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>473</v>
       </c>
@@ -47711,8 +48502,12 @@
       <c r="BH198" s="9">
         <v>0</v>
       </c>
+      <c r="BI198" s="10">
+        <f t="shared" si="3"/>
+        <v>1131</v>
+      </c>
     </row>
-    <row r="199" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>473</v>
       </c>
@@ -47893,8 +48688,12 @@
       <c r="BH199" s="9">
         <v>0</v>
       </c>
+      <c r="BI199" s="10">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="200" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>473</v>
       </c>
@@ -48075,8 +48874,12 @@
       <c r="BH200" s="9">
         <v>0</v>
       </c>
+      <c r="BI200" s="10">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
     </row>
-    <row r="201" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>473</v>
       </c>
@@ -48257,8 +49060,12 @@
       <c r="BH201" s="9">
         <v>0</v>
       </c>
+      <c r="BI201" s="10">
+        <f t="shared" si="3"/>
+        <v>1511</v>
+      </c>
     </row>
-    <row r="202" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>473</v>
       </c>
@@ -48439,8 +49246,12 @@
       <c r="BH202" s="9">
         <v>3450</v>
       </c>
+      <c r="BI202" s="10">
+        <f t="shared" si="3"/>
+        <v>915</v>
+      </c>
     </row>
-    <row r="203" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>473</v>
       </c>
@@ -48621,8 +49432,12 @@
       <c r="BH203" s="9">
         <v>0</v>
       </c>
+      <c r="BI203" s="10">
+        <f t="shared" si="3"/>
+        <v>616</v>
+      </c>
     </row>
-    <row r="204" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>473</v>
       </c>
@@ -48803,8 +49618,12 @@
       <c r="BH204" s="9">
         <v>0</v>
       </c>
+      <c r="BI204" s="10">
+        <f t="shared" si="3"/>
+        <v>2871</v>
+      </c>
     </row>
-    <row r="205" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>473</v>
       </c>
@@ -48985,8 +49804,12 @@
       <c r="BH205" s="9">
         <v>0</v>
       </c>
+      <c r="BI205" s="10">
+        <f t="shared" si="3"/>
+        <v>1451</v>
+      </c>
     </row>
-    <row r="206" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>473</v>
       </c>
@@ -49167,8 +49990,12 @@
       <c r="BH206" s="9">
         <v>0</v>
       </c>
+      <c r="BI206" s="10">
+        <f t="shared" si="3"/>
+        <v>726</v>
+      </c>
     </row>
-    <row r="207" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>474</v>
       </c>
@@ -49349,8 +50176,12 @@
       <c r="BH207" s="9">
         <v>0</v>
       </c>
+      <c r="BI207" s="10">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
     </row>
-    <row r="208" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>474</v>
       </c>
@@ -49531,8 +50362,12 @@
       <c r="BH208" s="9">
         <v>0</v>
       </c>
+      <c r="BI208" s="10">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="209" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>474</v>
       </c>
@@ -49713,8 +50548,12 @@
       <c r="BH209" s="9">
         <v>0</v>
       </c>
+      <c r="BI209" s="10">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
     </row>
-    <row r="210" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>474</v>
       </c>
@@ -49895,8 +50734,12 @@
       <c r="BH210" s="9">
         <v>0</v>
       </c>
+      <c r="BI210" s="10">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
     </row>
-    <row r="211" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>474</v>
       </c>
@@ -50077,8 +50920,12 @@
       <c r="BH211" s="9">
         <v>0</v>
       </c>
+      <c r="BI211" s="10">
+        <f t="shared" si="3"/>
+        <v>231</v>
+      </c>
     </row>
-    <row r="212" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>475</v>
       </c>
@@ -50259,8 +51106,12 @@
       <c r="BH212" s="9">
         <v>0</v>
       </c>
+      <c r="BI212" s="10">
+        <f t="shared" si="3"/>
+        <v>3154</v>
+      </c>
     </row>
-    <row r="213" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>475</v>
       </c>
@@ -50441,8 +51292,12 @@
       <c r="BH213" s="9">
         <v>0</v>
       </c>
+      <c r="BI213" s="10">
+        <f t="shared" si="3"/>
+        <v>1639</v>
+      </c>
     </row>
-    <row r="214" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>476</v>
       </c>
@@ -50623,8 +51478,12 @@
       <c r="BH214" s="9">
         <v>3761</v>
       </c>
+      <c r="BI214" s="10">
+        <f t="shared" si="3"/>
+        <v>2778</v>
+      </c>
     </row>
-    <row r="215" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>476</v>
       </c>
@@ -50805,8 +51664,12 @@
       <c r="BH215" s="9">
         <v>0</v>
       </c>
+      <c r="BI215" s="10">
+        <f t="shared" si="3"/>
+        <v>2518</v>
+      </c>
     </row>
-    <row r="216" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>477</v>
       </c>
@@ -50987,8 +51850,12 @@
       <c r="BH216" s="9">
         <v>0</v>
       </c>
+      <c r="BI216" s="10">
+        <f t="shared" si="3"/>
+        <v>3093</v>
+      </c>
     </row>
-    <row r="217" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>478</v>
       </c>
@@ -51169,8 +52036,12 @@
       <c r="BH217" s="9">
         <v>4330</v>
       </c>
+      <c r="BI217" s="10">
+        <f t="shared" si="3"/>
+        <v>1848</v>
+      </c>
     </row>
-    <row r="218" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>479</v>
       </c>
@@ -51351,8 +52222,12 @@
       <c r="BH218" s="9">
         <v>0</v>
       </c>
+      <c r="BI218" s="10">
+        <f t="shared" si="3"/>
+        <v>2315</v>
+      </c>
     </row>
-    <row r="219" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>479</v>
       </c>
@@ -51533,8 +52408,12 @@
       <c r="BH219" s="9">
         <v>0</v>
       </c>
+      <c r="BI219" s="10">
+        <f t="shared" si="3"/>
+        <v>2332</v>
+      </c>
     </row>
-    <row r="220" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>479</v>
       </c>
@@ -51715,8 +52594,12 @@
       <c r="BH220" s="9">
         <v>0</v>
       </c>
+      <c r="BI220" s="10">
+        <f t="shared" si="3"/>
+        <v>2521</v>
+      </c>
     </row>
-    <row r="221" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>480</v>
       </c>
@@ -51897,8 +52780,12 @@
       <c r="BH221" s="9">
         <v>0</v>
       </c>
+      <c r="BI221" s="10">
+        <f t="shared" si="3"/>
+        <v>1298</v>
+      </c>
     </row>
-    <row r="222" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>480</v>
       </c>
@@ -52079,8 +52966,12 @@
       <c r="BH222" s="9">
         <v>0</v>
       </c>
+      <c r="BI222" s="10">
+        <f t="shared" si="3"/>
+        <v>820</v>
+      </c>
     </row>
-    <row r="223" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>480</v>
       </c>
@@ -52261,8 +53152,12 @@
       <c r="BH223" s="9">
         <v>0</v>
       </c>
+      <c r="BI223" s="10">
+        <f t="shared" si="3"/>
+        <v>2797</v>
+      </c>
     </row>
-    <row r="224" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>481</v>
       </c>
@@ -52443,8 +53338,12 @@
       <c r="BH224" s="9">
         <v>3764</v>
       </c>
+      <c r="BI224" s="10">
+        <f t="shared" si="3"/>
+        <v>1049</v>
+      </c>
     </row>
-    <row r="225" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>481</v>
       </c>
@@ -52625,8 +53524,12 @@
       <c r="BH225" s="9">
         <v>0</v>
       </c>
+      <c r="BI225" s="10">
+        <f t="shared" si="3"/>
+        <v>2891</v>
+      </c>
     </row>
-    <row r="226" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>482</v>
       </c>
@@ -52807,8 +53710,12 @@
       <c r="BH226" s="9">
         <v>0</v>
       </c>
+      <c r="BI226" s="10">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
     </row>
-    <row r="227" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>483</v>
       </c>
@@ -52989,8 +53896,12 @@
       <c r="BH227" s="9">
         <v>0</v>
       </c>
+      <c r="BI227" s="10">
+        <f t="shared" si="3"/>
+        <v>2864</v>
+      </c>
     </row>
-    <row r="228" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>483</v>
       </c>
@@ -53171,8 +54082,12 @@
       <c r="BH228" s="9">
         <v>0</v>
       </c>
+      <c r="BI228" s="10">
+        <f t="shared" si="3"/>
+        <v>3815</v>
+      </c>
     </row>
-    <row r="229" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>484</v>
       </c>
@@ -53353,8 +54268,12 @@
       <c r="BH229" s="9">
         <v>0</v>
       </c>
+      <c r="BI229" s="10">
+        <f t="shared" si="3"/>
+        <v>1557</v>
+      </c>
     </row>
-    <row r="230" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>484</v>
       </c>
@@ -53535,8 +54454,12 @@
       <c r="BH230" s="9">
         <v>0</v>
       </c>
+      <c r="BI230" s="10">
+        <f t="shared" si="3"/>
+        <v>1164</v>
+      </c>
     </row>
-    <row r="231" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>484</v>
       </c>
@@ -53717,8 +54640,12 @@
       <c r="BH231" s="9">
         <v>0</v>
       </c>
+      <c r="BI231" s="10">
+        <f t="shared" si="3"/>
+        <v>748</v>
+      </c>
     </row>
-    <row r="232" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>484</v>
       </c>
@@ -53899,8 +54826,12 @@
       <c r="BH232" s="9">
         <v>0</v>
       </c>
+      <c r="BI232" s="10">
+        <f t="shared" si="3"/>
+        <v>1432</v>
+      </c>
     </row>
-    <row r="233" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>485</v>
       </c>
@@ -54081,8 +55012,12 @@
       <c r="BH233" s="9">
         <v>0</v>
       </c>
+      <c r="BI233" s="10">
+        <f t="shared" si="3"/>
+        <v>2018</v>
+      </c>
     </row>
-    <row r="234" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>486</v>
       </c>
@@ -54263,8 +55198,12 @@
       <c r="BH234" s="9">
         <v>0</v>
       </c>
+      <c r="BI234" s="10">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
     </row>
-    <row r="235" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>487</v>
       </c>
@@ -54445,8 +55384,12 @@
       <c r="BH235" s="9">
         <v>0</v>
       </c>
+      <c r="BI235" s="10">
+        <f t="shared" si="3"/>
+        <v>548</v>
+      </c>
     </row>
-    <row r="236" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>487</v>
       </c>
@@ -54627,8 +55570,12 @@
       <c r="BH236" s="9">
         <v>3717</v>
       </c>
+      <c r="BI236" s="10">
+        <f t="shared" si="3"/>
+        <v>1654</v>
+      </c>
     </row>
-    <row r="237" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>487</v>
       </c>
@@ -54809,8 +55756,12 @@
       <c r="BH237" s="9">
         <v>34</v>
       </c>
+      <c r="BI237" s="10">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
     </row>
-    <row r="238" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>488</v>
       </c>
@@ -54991,8 +55942,12 @@
       <c r="BH238" s="9">
         <v>0</v>
       </c>
+      <c r="BI238" s="10">
+        <f t="shared" si="3"/>
+        <v>632</v>
+      </c>
     </row>
-    <row r="239" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>488</v>
       </c>
@@ -55173,8 +56128,12 @@
       <c r="BH239" s="9">
         <v>0</v>
       </c>
+      <c r="BI239" s="10">
+        <f t="shared" si="3"/>
+        <v>852</v>
+      </c>
     </row>
-    <row r="240" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>488</v>
       </c>
@@ -55355,8 +56314,12 @@
       <c r="BH240" s="9">
         <v>0</v>
       </c>
+      <c r="BI240" s="10">
+        <f t="shared" si="3"/>
+        <v>854</v>
+      </c>
     </row>
-    <row r="241" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>489</v>
       </c>
@@ -55537,8 +56500,12 @@
       <c r="BH241" s="9">
         <v>2916</v>
       </c>
+      <c r="BI241" s="10">
+        <f t="shared" si="3"/>
+        <v>1062</v>
+      </c>
     </row>
-    <row r="242" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>489</v>
       </c>
@@ -55719,8 +56686,12 @@
       <c r="BH242" s="9">
         <v>0</v>
       </c>
+      <c r="BI242" s="10">
+        <f t="shared" si="3"/>
+        <v>1925</v>
+      </c>
     </row>
-    <row r="243" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>489</v>
       </c>
@@ -55901,8 +56872,12 @@
       <c r="BH243" s="9">
         <v>0</v>
       </c>
+      <c r="BI243" s="10">
+        <f t="shared" si="3"/>
+        <v>510</v>
+      </c>
     </row>
-    <row r="244" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>489</v>
       </c>
@@ -56083,8 +57058,12 @@
       <c r="BH244" s="9">
         <v>0</v>
       </c>
+      <c r="BI244" s="10">
+        <f t="shared" si="3"/>
+        <v>366</v>
+      </c>
     </row>
-    <row r="245" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>490</v>
       </c>
@@ -56265,8 +57244,12 @@
       <c r="BH245" s="9">
         <v>0</v>
       </c>
+      <c r="BI245" s="10">
+        <f t="shared" si="3"/>
+        <v>1617</v>
+      </c>
     </row>
-    <row r="246" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>490</v>
       </c>
@@ -56447,8 +57430,12 @@
       <c r="BH246" s="9">
         <v>0</v>
       </c>
+      <c r="BI246" s="10">
+        <f t="shared" si="3"/>
+        <v>2112</v>
+      </c>
     </row>
-    <row r="247" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>491</v>
       </c>
@@ -56629,8 +57616,12 @@
       <c r="BH247" s="9">
         <v>0</v>
       </c>
+      <c r="BI247" s="10">
+        <f t="shared" si="3"/>
+        <v>1547</v>
+      </c>
     </row>
-    <row r="248" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>491</v>
       </c>
@@ -56811,8 +57802,12 @@
       <c r="BH248" s="9">
         <v>0</v>
       </c>
+      <c r="BI248" s="10">
+        <f t="shared" si="3"/>
+        <v>1370</v>
+      </c>
     </row>
-    <row r="249" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>491</v>
       </c>
@@ -56993,8 +57988,12 @@
       <c r="BH249" s="9">
         <v>2657</v>
       </c>
+      <c r="BI249" s="10">
+        <f t="shared" si="3"/>
+        <v>1034</v>
+      </c>
     </row>
-    <row r="250" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>491</v>
       </c>
@@ -57175,8 +58174,12 @@
       <c r="BH250" s="9">
         <v>0</v>
       </c>
+      <c r="BI250" s="10">
+        <f t="shared" si="3"/>
+        <v>1799</v>
+      </c>
     </row>
-    <row r="251" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>491</v>
       </c>
@@ -57357,8 +58360,12 @@
       <c r="BH251" s="9">
         <v>0</v>
       </c>
+      <c r="BI251" s="10">
+        <f t="shared" si="3"/>
+        <v>823</v>
+      </c>
     </row>
-    <row r="252" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>491</v>
       </c>
@@ -57539,8 +58546,12 @@
       <c r="BH252" s="9">
         <v>0</v>
       </c>
+      <c r="BI252" s="10">
+        <f t="shared" si="3"/>
+        <v>2277</v>
+      </c>
     </row>
-    <row r="253" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>491</v>
       </c>
@@ -57721,8 +58732,12 @@
       <c r="BH253" s="9">
         <v>0</v>
       </c>
+      <c r="BI253" s="10">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
     </row>
-    <row r="254" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>491</v>
       </c>
@@ -57903,8 +58918,12 @@
       <c r="BH254" s="9">
         <v>0</v>
       </c>
+      <c r="BI254" s="10">
+        <f t="shared" si="3"/>
+        <v>2310</v>
+      </c>
     </row>
-    <row r="255" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>491</v>
       </c>
@@ -58085,8 +59104,12 @@
       <c r="BH255" s="9">
         <v>0</v>
       </c>
+      <c r="BI255" s="10">
+        <f t="shared" si="3"/>
+        <v>1575</v>
+      </c>
     </row>
-    <row r="256" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>491</v>
       </c>
@@ -58267,8 +59290,12 @@
       <c r="BH256" s="9">
         <v>0</v>
       </c>
+      <c r="BI256" s="10">
+        <f t="shared" si="3"/>
+        <v>822</v>
+      </c>
     </row>
-    <row r="257" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>491</v>
       </c>
@@ -58449,8 +59476,12 @@
       <c r="BH257" s="9">
         <v>0</v>
       </c>
+      <c r="BI257" s="10">
+        <f t="shared" si="3"/>
+        <v>694</v>
+      </c>
     </row>
-    <row r="258" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>491</v>
       </c>
@@ -58631,8 +59662,12 @@
       <c r="BH258" s="9">
         <v>0</v>
       </c>
+      <c r="BI258" s="10">
+        <f t="shared" si="3"/>
+        <v>1118</v>
+      </c>
     </row>
-    <row r="259" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>491</v>
       </c>
@@ -58813,8 +59848,12 @@
       <c r="BH259" s="9">
         <v>0</v>
       </c>
+      <c r="BI259" s="10">
+        <f t="shared" ref="BI259:BI322" si="4">SUM(C259:M259)</f>
+        <v>1103</v>
+      </c>
     </row>
-    <row r="260" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>491</v>
       </c>
@@ -58995,8 +60034,12 @@
       <c r="BH260" s="9">
         <v>0</v>
       </c>
+      <c r="BI260" s="10">
+        <f t="shared" si="4"/>
+        <v>411</v>
+      </c>
     </row>
-    <row r="261" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>491</v>
       </c>
@@ -59177,8 +60220,12 @@
       <c r="BH261" s="9">
         <v>0</v>
       </c>
+      <c r="BI261" s="10">
+        <f t="shared" si="4"/>
+        <v>1216</v>
+      </c>
     </row>
-    <row r="262" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>491</v>
       </c>
@@ -59359,8 +60406,12 @@
       <c r="BH262" s="9">
         <v>0</v>
       </c>
+      <c r="BI262" s="10">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
     </row>
-    <row r="263" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>491</v>
       </c>
@@ -59541,8 +60592,12 @@
       <c r="BH263" s="9">
         <v>0</v>
       </c>
+      <c r="BI263" s="10">
+        <f t="shared" si="4"/>
+        <v>1223</v>
+      </c>
     </row>
-    <row r="264" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>491</v>
       </c>
@@ -59723,8 +60778,12 @@
       <c r="BH264" s="9">
         <v>0</v>
       </c>
+      <c r="BI264" s="10">
+        <f t="shared" si="4"/>
+        <v>148</v>
+      </c>
     </row>
-    <row r="265" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>491</v>
       </c>
@@ -59905,8 +60964,12 @@
       <c r="BH265" s="9">
         <v>0</v>
       </c>
+      <c r="BI265" s="10">
+        <f t="shared" si="4"/>
+        <v>1198</v>
+      </c>
     </row>
-    <row r="266" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>491</v>
       </c>
@@ -60087,8 +61150,12 @@
       <c r="BH266" s="9">
         <v>1695</v>
       </c>
+      <c r="BI266" s="10">
+        <f t="shared" si="4"/>
+        <v>1683</v>
+      </c>
     </row>
-    <row r="267" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>491</v>
       </c>
@@ -60269,8 +61336,12 @@
       <c r="BH267" s="9">
         <v>0</v>
       </c>
+      <c r="BI267" s="10">
+        <f t="shared" si="4"/>
+        <v>650</v>
+      </c>
     </row>
-    <row r="268" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>491</v>
       </c>
@@ -60451,8 +61522,12 @@
       <c r="BH268" s="9">
         <v>0</v>
       </c>
+      <c r="BI268" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="269" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>492</v>
       </c>
@@ -60633,8 +61708,12 @@
       <c r="BH269" s="9">
         <v>0</v>
       </c>
+      <c r="BI269" s="10">
+        <f t="shared" si="4"/>
+        <v>783</v>
+      </c>
     </row>
-    <row r="270" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>492</v>
       </c>
@@ -60815,8 +61894,12 @@
       <c r="BH270" s="9">
         <v>0</v>
       </c>
+      <c r="BI270" s="10">
+        <f t="shared" si="4"/>
+        <v>2549</v>
+      </c>
     </row>
-    <row r="271" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>492</v>
       </c>
@@ -60997,8 +62080,12 @@
       <c r="BH271" s="9">
         <v>0</v>
       </c>
+      <c r="BI271" s="10">
+        <f t="shared" si="4"/>
+        <v>1387</v>
+      </c>
     </row>
-    <row r="272" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>492</v>
       </c>
@@ -61179,8 +62266,12 @@
       <c r="BH272" s="9">
         <v>0</v>
       </c>
+      <c r="BI272" s="10">
+        <f t="shared" si="4"/>
+        <v>886</v>
+      </c>
     </row>
-    <row r="273" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>492</v>
       </c>
@@ -61361,8 +62452,12 @@
       <c r="BH273" s="9">
         <v>0</v>
       </c>
+      <c r="BI273" s="10">
+        <f t="shared" si="4"/>
+        <v>805</v>
+      </c>
     </row>
-    <row r="274" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>492</v>
       </c>
@@ -61543,8 +62638,12 @@
       <c r="BH274" s="9">
         <v>0</v>
       </c>
+      <c r="BI274" s="10">
+        <f t="shared" si="4"/>
+        <v>770</v>
+      </c>
     </row>
-    <row r="275" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>492</v>
       </c>
@@ -61725,8 +62824,12 @@
       <c r="BH275" s="9">
         <v>0</v>
       </c>
+      <c r="BI275" s="10">
+        <f t="shared" si="4"/>
+        <v>1186</v>
+      </c>
     </row>
-    <row r="276" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>492</v>
       </c>
@@ -61907,8 +63010,12 @@
       <c r="BH276" s="9">
         <v>0</v>
       </c>
+      <c r="BI276" s="10">
+        <f t="shared" si="4"/>
+        <v>327</v>
+      </c>
     </row>
-    <row r="277" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>492</v>
       </c>
@@ -62089,8 +63196,12 @@
       <c r="BH277" s="9">
         <v>3835</v>
       </c>
+      <c r="BI277" s="10">
+        <f t="shared" si="4"/>
+        <v>1069</v>
+      </c>
     </row>
-    <row r="278" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>492</v>
       </c>
@@ -62271,8 +63382,12 @@
       <c r="BH278" s="9">
         <v>0</v>
       </c>
+      <c r="BI278" s="10">
+        <f t="shared" si="4"/>
+        <v>1225</v>
+      </c>
     </row>
-    <row r="279" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>492</v>
       </c>
@@ -62453,8 +63568,12 @@
       <c r="BH279" s="9">
         <v>0</v>
       </c>
+      <c r="BI279" s="10">
+        <f t="shared" si="4"/>
+        <v>843</v>
+      </c>
     </row>
-    <row r="280" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>492</v>
       </c>
@@ -62635,8 +63754,12 @@
       <c r="BH280" s="9">
         <v>0</v>
       </c>
+      <c r="BI280" s="10">
+        <f t="shared" si="4"/>
+        <v>637</v>
+      </c>
     </row>
-    <row r="281" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>492</v>
       </c>
@@ -62817,8 +63940,12 @@
       <c r="BH281" s="9">
         <v>0</v>
       </c>
+      <c r="BI281" s="10">
+        <f t="shared" si="4"/>
+        <v>1436</v>
+      </c>
     </row>
-    <row r="282" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>492</v>
       </c>
@@ -62999,8 +64126,12 @@
       <c r="BH282" s="9">
         <v>0</v>
       </c>
+      <c r="BI282" s="10">
+        <f t="shared" si="4"/>
+        <v>514</v>
+      </c>
     </row>
-    <row r="283" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>492</v>
       </c>
@@ -63181,8 +64312,12 @@
       <c r="BH283" s="9">
         <v>0</v>
       </c>
+      <c r="BI283" s="10">
+        <f t="shared" si="4"/>
+        <v>827</v>
+      </c>
     </row>
-    <row r="284" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>492</v>
       </c>
@@ -63363,8 +64498,12 @@
       <c r="BH284" s="9">
         <v>0</v>
       </c>
+      <c r="BI284" s="10">
+        <f t="shared" si="4"/>
+        <v>648</v>
+      </c>
     </row>
-    <row r="285" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>492</v>
       </c>
@@ -63542,8 +64681,12 @@
       <c r="BH285" s="3">
         <v>0</v>
       </c>
+      <c r="BI285" s="10">
+        <f t="shared" si="4"/>
+        <v>1133</v>
+      </c>
     </row>
-    <row r="286" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>493</v>
       </c>
@@ -63724,8 +64867,12 @@
       <c r="BH286" s="9">
         <v>0</v>
       </c>
+      <c r="BI286" s="10">
+        <f t="shared" si="4"/>
+        <v>549</v>
+      </c>
     </row>
-    <row r="287" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>493</v>
       </c>
@@ -63906,8 +65053,12 @@
       <c r="BH287" s="9">
         <v>1290</v>
       </c>
+      <c r="BI287" s="10">
+        <f t="shared" si="4"/>
+        <v>762</v>
+      </c>
     </row>
-    <row r="288" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>494</v>
       </c>
@@ -64088,8 +65239,12 @@
       <c r="BH288" s="9">
         <v>0</v>
       </c>
+      <c r="BI288" s="10">
+        <f t="shared" si="4"/>
+        <v>399</v>
+      </c>
     </row>
-    <row r="289" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>494</v>
       </c>
@@ -64270,8 +65425,12 @@
       <c r="BH289" s="9">
         <v>0</v>
       </c>
+      <c r="BI289" s="10">
+        <f t="shared" si="4"/>
+        <v>429</v>
+      </c>
     </row>
-    <row r="290" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>494</v>
       </c>
@@ -64452,8 +65611,12 @@
       <c r="BH290" s="9">
         <v>0</v>
       </c>
+      <c r="BI290" s="10">
+        <f t="shared" si="4"/>
+        <v>626</v>
+      </c>
     </row>
-    <row r="291" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>495</v>
       </c>
@@ -64634,8 +65797,12 @@
       <c r="BH291" s="9">
         <v>0</v>
       </c>
+      <c r="BI291" s="10">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
     </row>
-    <row r="292" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>495</v>
       </c>
@@ -64816,8 +65983,12 @@
       <c r="BH292" s="9">
         <v>0</v>
       </c>
+      <c r="BI292" s="10">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
     </row>
-    <row r="293" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>495</v>
       </c>
@@ -64995,8 +66166,12 @@
       <c r="BH293" s="3">
         <v>0</v>
       </c>
+      <c r="BI293" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="294" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>496</v>
       </c>
@@ -65177,8 +66352,12 @@
       <c r="BH294" s="9">
         <v>0</v>
       </c>
+      <c r="BI294" s="10">
+        <f t="shared" si="4"/>
+        <v>2854</v>
+      </c>
     </row>
-    <row r="295" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>497</v>
       </c>
@@ -65359,8 +66538,12 @@
       <c r="BH295" s="9">
         <v>2601</v>
       </c>
+      <c r="BI295" s="10">
+        <f t="shared" si="4"/>
+        <v>3347</v>
+      </c>
     </row>
-    <row r="296" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>498</v>
       </c>
@@ -65541,8 +66724,12 @@
       <c r="BH296" s="9">
         <v>0</v>
       </c>
+      <c r="BI296" s="10">
+        <f t="shared" si="4"/>
+        <v>1248</v>
+      </c>
     </row>
-    <row r="297" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>499</v>
       </c>
@@ -65723,8 +66910,12 @@
       <c r="BH297" s="9">
         <v>0</v>
       </c>
+      <c r="BI297" s="10">
+        <f t="shared" si="4"/>
+        <v>2202</v>
+      </c>
     </row>
-    <row r="298" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>499</v>
       </c>
@@ -65905,8 +67096,12 @@
       <c r="BH298" s="9">
         <v>0</v>
       </c>
+      <c r="BI298" s="10">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
     </row>
-    <row r="299" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>499</v>
       </c>
@@ -66087,8 +67282,12 @@
       <c r="BH299" s="9">
         <v>0</v>
       </c>
+      <c r="BI299" s="10">
+        <f t="shared" si="4"/>
+        <v>2631</v>
+      </c>
     </row>
-    <row r="300" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>500</v>
       </c>
@@ -66269,8 +67468,12 @@
       <c r="BH300" s="9">
         <v>0</v>
       </c>
+      <c r="BI300" s="10">
+        <f t="shared" si="4"/>
+        <v>2115</v>
+      </c>
     </row>
-    <row r="301" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>500</v>
       </c>
@@ -66451,8 +67654,12 @@
       <c r="BH301" s="9">
         <v>0</v>
       </c>
+      <c r="BI301" s="10">
+        <f t="shared" si="4"/>
+        <v>2137</v>
+      </c>
     </row>
-    <row r="302" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>500</v>
       </c>
@@ -66633,8 +67840,12 @@
       <c r="BH302" s="9">
         <v>0</v>
       </c>
+      <c r="BI302" s="10">
+        <f t="shared" si="4"/>
+        <v>2603</v>
+      </c>
     </row>
-    <row r="303" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>501</v>
       </c>
@@ -66815,8 +68026,12 @@
       <c r="BH303" s="9">
         <v>0</v>
       </c>
+      <c r="BI303" s="10">
+        <f t="shared" si="4"/>
+        <v>1665</v>
+      </c>
     </row>
-    <row r="304" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>502</v>
       </c>
@@ -66994,8 +68209,12 @@
       <c r="BH304" s="3">
         <v>0</v>
       </c>
+      <c r="BI304" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="305" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>503</v>
       </c>
@@ -67176,8 +68395,12 @@
       <c r="BH305" s="9">
         <v>0</v>
       </c>
+      <c r="BI305" s="10">
+        <f t="shared" si="4"/>
+        <v>2755</v>
+      </c>
     </row>
-    <row r="306" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>503</v>
       </c>
@@ -67358,8 +68581,12 @@
       <c r="BH306" s="9">
         <v>0</v>
       </c>
+      <c r="BI306" s="10">
+        <f t="shared" si="4"/>
+        <v>2905</v>
+      </c>
     </row>
-    <row r="307" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>504</v>
       </c>
@@ -67540,8 +68767,12 @@
       <c r="BH307" s="9">
         <v>0</v>
       </c>
+      <c r="BI307" s="10">
+        <f t="shared" si="4"/>
+        <v>3149</v>
+      </c>
     </row>
-    <row r="308" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>504</v>
       </c>
@@ -67722,8 +68953,12 @@
       <c r="BH308" s="9">
         <v>0</v>
       </c>
+      <c r="BI308" s="10">
+        <f t="shared" si="4"/>
+        <v>1683</v>
+      </c>
     </row>
-    <row r="309" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>504</v>
       </c>
@@ -67904,8 +69139,12 @@
       <c r="BH309" s="9">
         <v>0</v>
       </c>
+      <c r="BI309" s="10">
+        <f t="shared" si="4"/>
+        <v>1190</v>
+      </c>
     </row>
-    <row r="310" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>504</v>
       </c>
@@ -68086,8 +69325,12 @@
       <c r="BH310" s="9">
         <v>0</v>
       </c>
+      <c r="BI310" s="10">
+        <f t="shared" si="4"/>
+        <v>3526</v>
+      </c>
     </row>
-    <row r="311" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>505</v>
       </c>
@@ -68268,8 +69511,12 @@
       <c r="BH311" s="9">
         <v>6675</v>
       </c>
+      <c r="BI311" s="10">
+        <f t="shared" si="4"/>
+        <v>1044</v>
+      </c>
     </row>
-    <row r="312" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>505</v>
       </c>
@@ -68450,8 +69697,12 @@
       <c r="BH312" s="9">
         <v>0</v>
       </c>
+      <c r="BI312" s="10">
+        <f t="shared" si="4"/>
+        <v>2113</v>
+      </c>
     </row>
-    <row r="313" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>506</v>
       </c>
@@ -68632,8 +69883,12 @@
       <c r="BH313" s="9">
         <v>0</v>
       </c>
+      <c r="BI313" s="10">
+        <f t="shared" si="4"/>
+        <v>521</v>
+      </c>
     </row>
-    <row r="314" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>506</v>
       </c>
@@ -68814,8 +70069,12 @@
       <c r="BH314" s="9">
         <v>0</v>
       </c>
+      <c r="BI314" s="10">
+        <f t="shared" si="4"/>
+        <v>2087</v>
+      </c>
     </row>
-    <row r="315" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>507</v>
       </c>
@@ -68996,8 +70255,12 @@
       <c r="BH315" s="9">
         <v>372</v>
       </c>
+      <c r="BI315" s="10">
+        <f t="shared" si="4"/>
+        <v>2153</v>
+      </c>
     </row>
-    <row r="316" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>507</v>
       </c>
@@ -69178,8 +70441,12 @@
       <c r="BH316" s="9">
         <v>0</v>
       </c>
+      <c r="BI316" s="10">
+        <f t="shared" si="4"/>
+        <v>1113</v>
+      </c>
     </row>
-    <row r="317" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>507</v>
       </c>
@@ -69360,8 +70627,12 @@
       <c r="BH317" s="9">
         <v>0</v>
       </c>
+      <c r="BI317" s="10">
+        <f t="shared" si="4"/>
+        <v>590</v>
+      </c>
     </row>
-    <row r="318" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>507</v>
       </c>
@@ -69542,8 +70813,12 @@
       <c r="BH318" s="9">
         <v>0</v>
       </c>
+      <c r="BI318" s="10">
+        <f t="shared" si="4"/>
+        <v>1748</v>
+      </c>
     </row>
-    <row r="319" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>507</v>
       </c>
@@ -69724,8 +70999,12 @@
       <c r="BH319" s="9">
         <v>0</v>
       </c>
+      <c r="BI319" s="10">
+        <f t="shared" si="4"/>
+        <v>670</v>
+      </c>
     </row>
-    <row r="320" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>507</v>
       </c>
@@ -69906,8 +71185,12 @@
       <c r="BH320" s="9">
         <v>0</v>
       </c>
+      <c r="BI320" s="10">
+        <f t="shared" si="4"/>
+        <v>587</v>
+      </c>
     </row>
-    <row r="321" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>507</v>
       </c>
@@ -70088,8 +71371,12 @@
       <c r="BH321" s="9">
         <v>0</v>
       </c>
+      <c r="BI321" s="10">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
     </row>
-    <row r="322" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>507</v>
       </c>
@@ -70270,8 +71557,12 @@
       <c r="BH322" s="9">
         <v>343</v>
       </c>
+      <c r="BI322" s="10">
+        <f t="shared" si="4"/>
+        <v>1206</v>
+      </c>
     </row>
-    <row r="323" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>508</v>
       </c>
@@ -70452,8 +71743,12 @@
       <c r="BH323" s="9">
         <v>0</v>
       </c>
+      <c r="BI323" s="10">
+        <f t="shared" ref="BI323:BI353" si="5">SUM(C323:M323)</f>
+        <v>1218</v>
+      </c>
     </row>
-    <row r="324" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>508</v>
       </c>
@@ -70634,8 +71929,12 @@
       <c r="BH324" s="9">
         <v>0</v>
       </c>
+      <c r="BI324" s="10">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
     </row>
-    <row r="325" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>508</v>
       </c>
@@ -70816,8 +72115,12 @@
       <c r="BH325" s="9">
         <v>0</v>
       </c>
+      <c r="BI325" s="10">
+        <f t="shared" si="5"/>
+        <v>572</v>
+      </c>
     </row>
-    <row r="326" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>508</v>
       </c>
@@ -70998,8 +72301,12 @@
       <c r="BH326" s="9">
         <v>0</v>
       </c>
+      <c r="BI326" s="10">
+        <f t="shared" si="5"/>
+        <v>1224</v>
+      </c>
     </row>
-    <row r="327" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>509</v>
       </c>
@@ -71180,8 +72487,12 @@
       <c r="BH327" s="9">
         <v>0</v>
       </c>
+      <c r="BI327" s="10">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
     </row>
-    <row r="328" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>509</v>
       </c>
@@ -71362,8 +72673,12 @@
       <c r="BH328" s="9">
         <v>0</v>
       </c>
+      <c r="BI328" s="10">
+        <f t="shared" si="5"/>
+        <v>680</v>
+      </c>
     </row>
-    <row r="329" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>510</v>
       </c>
@@ -71544,8 +72859,12 @@
       <c r="BH329" s="9">
         <v>0</v>
       </c>
+      <c r="BI329" s="10">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="330" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>510</v>
       </c>
@@ -71726,8 +73045,12 @@
       <c r="BH330" s="9">
         <v>0</v>
       </c>
+      <c r="BI330" s="10">
+        <f t="shared" si="5"/>
+        <v>991</v>
+      </c>
     </row>
-    <row r="331" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>510</v>
       </c>
@@ -71908,8 +73231,12 @@
       <c r="BH331" s="9">
         <v>1916</v>
       </c>
+      <c r="BI331" s="10">
+        <f t="shared" si="5"/>
+        <v>835</v>
+      </c>
     </row>
-    <row r="332" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>510</v>
       </c>
@@ -72090,8 +73417,12 @@
       <c r="BH332" s="9">
         <v>0</v>
       </c>
+      <c r="BI332" s="10">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
     </row>
-    <row r="333" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>510</v>
       </c>
@@ -72272,8 +73603,12 @@
       <c r="BH333" s="9">
         <v>0</v>
       </c>
+      <c r="BI333" s="10">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
     </row>
-    <row r="334" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>510</v>
       </c>
@@ -72454,8 +73789,12 @@
       <c r="BH334" s="9">
         <v>0</v>
       </c>
+      <c r="BI334" s="10">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
     </row>
-    <row r="335" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>510</v>
       </c>
@@ -72636,8 +73975,12 @@
       <c r="BH335" s="9">
         <v>0</v>
       </c>
+      <c r="BI335" s="10">
+        <f t="shared" si="5"/>
+        <v>252</v>
+      </c>
     </row>
-    <row r="336" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>510</v>
       </c>
@@ -72818,8 +74161,12 @@
       <c r="BH336" s="9">
         <v>0</v>
       </c>
+      <c r="BI336" s="10">
+        <f t="shared" si="5"/>
+        <v>179</v>
+      </c>
     </row>
-    <row r="337" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>510</v>
       </c>
@@ -73000,8 +74347,12 @@
       <c r="BH337" s="9">
         <v>0</v>
       </c>
+      <c r="BI337" s="10">
+        <f t="shared" si="5"/>
+        <v>1065</v>
+      </c>
     </row>
-    <row r="338" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>510</v>
       </c>
@@ -73182,8 +74533,12 @@
       <c r="BH338" s="9">
         <v>0</v>
       </c>
+      <c r="BI338" s="10">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="339" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>510</v>
       </c>
@@ -73364,8 +74719,12 @@
       <c r="BH339" s="9">
         <v>0</v>
       </c>
+      <c r="BI339" s="10">
+        <f t="shared" si="5"/>
+        <v>316</v>
+      </c>
     </row>
-    <row r="340" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>510</v>
       </c>
@@ -73546,8 +74905,12 @@
       <c r="BH340" s="9">
         <v>0</v>
       </c>
+      <c r="BI340" s="10">
+        <f t="shared" si="5"/>
+        <v>185</v>
+      </c>
     </row>
-    <row r="341" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>510</v>
       </c>
@@ -73728,8 +75091,12 @@
       <c r="BH341" s="9">
         <v>0</v>
       </c>
+      <c r="BI341" s="10">
+        <f t="shared" si="5"/>
+        <v>558</v>
+      </c>
     </row>
-    <row r="342" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>510</v>
       </c>
@@ -73910,8 +75277,12 @@
       <c r="BH342" s="9">
         <v>1883</v>
       </c>
+      <c r="BI342" s="10">
+        <f t="shared" si="5"/>
+        <v>1182</v>
+      </c>
     </row>
-    <row r="343" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>511</v>
       </c>
@@ -74092,8 +75463,12 @@
       <c r="BH343" s="9">
         <v>1611</v>
       </c>
+      <c r="BI343" s="10">
+        <f t="shared" si="5"/>
+        <v>5886</v>
+      </c>
     </row>
-    <row r="344" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>512</v>
       </c>
@@ -74274,8 +75649,12 @@
       <c r="BH344" s="9">
         <v>0</v>
       </c>
+      <c r="BI344" s="10">
+        <f t="shared" si="5"/>
+        <v>3299</v>
+      </c>
     </row>
-    <row r="345" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>513</v>
       </c>
@@ -74456,8 +75835,12 @@
       <c r="BH345" s="9">
         <v>0</v>
       </c>
+      <c r="BI345" s="10">
+        <f t="shared" si="5"/>
+        <v>3614</v>
+      </c>
     </row>
-    <row r="346" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>514</v>
       </c>
@@ -74638,8 +76021,12 @@
       <c r="BH346" s="9">
         <v>385</v>
       </c>
+      <c r="BI346" s="10">
+        <f t="shared" si="5"/>
+        <v>2226</v>
+      </c>
     </row>
-    <row r="347" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>515</v>
       </c>
@@ -74820,8 +76207,12 @@
       <c r="BH347" s="9">
         <v>0</v>
       </c>
+      <c r="BI347" s="10">
+        <f t="shared" si="5"/>
+        <v>1212</v>
+      </c>
     </row>
-    <row r="348" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>516</v>
       </c>
@@ -75002,8 +76393,12 @@
       <c r="BH348" s="9">
         <v>0</v>
       </c>
+      <c r="BI348" s="10">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
     </row>
-    <row r="349" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>516</v>
       </c>
@@ -75184,8 +76579,12 @@
       <c r="BH349" s="9">
         <v>0</v>
       </c>
+      <c r="BI349" s="10">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="350" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>516</v>
       </c>
@@ -75366,8 +76765,12 @@
       <c r="BH350" s="9">
         <v>0</v>
       </c>
+      <c r="BI350" s="10">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
     </row>
-    <row r="351" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>516</v>
       </c>
@@ -75548,8 +76951,12 @@
       <c r="BH351" s="9">
         <v>0</v>
       </c>
+      <c r="BI351" s="10">
+        <f t="shared" si="5"/>
+        <v>359</v>
+      </c>
     </row>
-    <row r="352" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>516</v>
       </c>
@@ -75730,8 +77137,12 @@
       <c r="BH352" s="9">
         <v>0</v>
       </c>
+      <c r="BI352" s="10">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="353" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>517</v>
       </c>
@@ -75911,6 +77322,10 @@
       </c>
       <c r="BH353" s="9">
         <v>0</v>
+      </c>
+      <c r="BI353" s="10">
+        <f t="shared" si="5"/>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
